--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/实收资本.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/实收资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>470.23276</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1557.70861</v>
-      </c>
-      <c r="D2" t="n">
-        <v>141.14003</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.08527999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>49.98205</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1333.30668</v>
-      </c>
-      <c r="H2" t="n">
-        <v>380.91145</v>
-      </c>
-      <c r="I2" t="n">
-        <v>418.06961</v>
-      </c>
-      <c r="J2" t="n">
-        <v>145.05999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>215.19496</v>
-      </c>
-      <c r="L2" t="n">
-        <v>21409.5308</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30.4172</v>
-      </c>
-      <c r="N2" t="n">
-        <v>45.01236</v>
-      </c>
-      <c r="O2" t="n">
-        <v>758.1362800000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>590.76529</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>84.84693</v>
-      </c>
-      <c r="R2" t="n">
-        <v>142.01257</v>
-      </c>
-      <c r="S2" t="n">
-        <v>78.2084</v>
-      </c>
-      <c r="T2" t="n">
-        <v>79.94056999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>163.17069</v>
-      </c>
-      <c r="V2" t="n">
-        <v>287.62596</v>
-      </c>
-      <c r="W2" t="n">
-        <v>221.7678</v>
-      </c>
-      <c r="X2" t="n">
-        <v>878.21866</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3013.27163</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1007.96063</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>759.89552</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>66.31494000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>611.8782200000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1694.75606</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>738.13371</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>369.30545</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>312.56909</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>243.1834</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>825.35853</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>129.46494</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>284.55442</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>340.15258</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>492.9943</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2189.85651</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>101.44389</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>497.52292</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1899.87149</v>
-      </c>
-      <c r="D3" t="n">
-        <v>176.05646</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08527999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65.90949000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1685.76063</v>
-      </c>
-      <c r="H3" t="n">
-        <v>365.54119</v>
-      </c>
-      <c r="I3" t="n">
-        <v>515.38542</v>
-      </c>
-      <c r="J3" t="n">
-        <v>176.98918</v>
-      </c>
-      <c r="K3" t="n">
-        <v>273.16581</v>
-      </c>
-      <c r="L3" t="n">
-        <v>24841.86212</v>
-      </c>
-      <c r="M3" t="n">
-        <v>36.44131</v>
-      </c>
-      <c r="N3" t="n">
-        <v>53.74058</v>
-      </c>
-      <c r="O3" t="n">
-        <v>826.80723</v>
-      </c>
-      <c r="P3" t="n">
-        <v>610.3322899999999</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>79.97829</v>
-      </c>
-      <c r="R3" t="n">
-        <v>173.86713</v>
-      </c>
-      <c r="S3" t="n">
-        <v>94.80106000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>78.47499000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>197.65569</v>
-      </c>
-      <c r="V3" t="n">
-        <v>303.00619</v>
-      </c>
-      <c r="W3" t="n">
-        <v>234.41912</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1062.39791</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3401.55749</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1443.26371</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>886.67879</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>88.93992</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>754.16967</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1807.40469</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>823.51723</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>381.19003</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>469.22107</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>330.66939</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>986.21243</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>151.3749</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>338.03846</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>386.14924</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>549.68105</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2379.73342</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>100.87023</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>536.5594</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2036.37159</v>
-      </c>
-      <c r="D4" t="n">
-        <v>193.636</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08527999999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>73.29602</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1900.61197</v>
-      </c>
-      <c r="H4" t="n">
-        <v>354.64053</v>
-      </c>
-      <c r="I4" t="n">
-        <v>638.29012</v>
-      </c>
-      <c r="J4" t="n">
-        <v>178.3253</v>
-      </c>
-      <c r="K4" t="n">
-        <v>341.85764</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26445.81532</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36.72397</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58.20783</v>
-      </c>
-      <c r="O4" t="n">
-        <v>873.98838</v>
-      </c>
-      <c r="P4" t="n">
-        <v>628.88848</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>83.45278</v>
-      </c>
-      <c r="R4" t="n">
-        <v>178.992</v>
-      </c>
-      <c r="S4" t="n">
-        <v>107.38746</v>
-      </c>
-      <c r="T4" t="n">
-        <v>78.03493</v>
-      </c>
-      <c r="U4" t="n">
-        <v>217.05918</v>
-      </c>
-      <c r="V4" t="n">
-        <v>305.90847</v>
-      </c>
-      <c r="W4" t="n">
-        <v>247.51342</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1422.78035</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3572.27523</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1708.02229</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>905.08636</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>92.15389999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>834.13537</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1822.43372</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>868.03624</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>411.86559</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>502.16745</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>345.69371</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1052.10106</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>152.32737</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>373.17862</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>412.66662</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>593.46092</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2037.02849</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>108.41841</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
